--- a/Import/pyPlotList/Time series.xlsx
+++ b/Import/pyPlotList/Time series.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Qcontrol</t>
   </si>
@@ -68,86 +68,50 @@
     <t>Height</t>
   </si>
   <si>
-    <t>Storage.storagebus</t>
-  </si>
-  <si>
     <t>Element</t>
   </si>
   <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>['v.Powers']</t>
+  </si>
+  <si>
+    <t>['v.puVmagAngle']</t>
+  </si>
+  <si>
+    <t>[-1]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
     <t>Bus</t>
   </si>
   <si>
-    <t>Circuit</t>
-  </si>
-  <si>
-    <t>[1,-1,-1,1]</t>
-  </si>
-  <si>
-    <t>[-1]</t>
-  </si>
-  <si>
-    <t>['p.%stored','v.Powers', 'v.Powers', 'v.VoltagesMagAng']</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>['v.puVmagAngle']</t>
-  </si>
-  <si>
-    <t>['Even']</t>
-  </si>
-  <si>
-    <t>['v.TotalPower']</t>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>PVSystem.oh_262645</t>
+  </si>
+  <si>
+    <t>node_11021960</t>
+  </si>
+  <si>
+    <t>['Index=0']</t>
   </si>
   <si>
     <t>['SumEven']</t>
-  </si>
-  <si>
-    <r>
-      <t>['</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">None' </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>, 'SumEven', 'SumOdd', 'Index=1']</t>
-    </r>
-  </si>
-  <si>
-    <t>TS1</t>
-  </si>
-  <si>
-    <t>TS2</t>
-  </si>
-  <si>
-    <t>TS3</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>storagebus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,21 +214,13 @@
       <family val="3"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="13.2"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13.2"/>
-      <color theme="0"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +282,6 @@
         <bgColor theme="4" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -361,7 +311,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -392,14 +342,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -418,7 +365,26 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -591,7 +557,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{A32A51A0-E035-4FE0-9AEE-95C4B07BD4ED}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -604,9 +572,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="B2:H5" insertRowShift="1" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="B2:H5" xr:uid="{3ACE7797-6FF3-43A0-BA50-C0B0AE930604}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="A2:H4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A2:H4" xr:uid="{3ACE7797-6FF3-43A0-BA50-C0B0AE930604}"/>
+  <tableColumns count="8">
+    <tableColumn id="3" xr3:uid="{D4DF4142-866A-4CE0-8B16-F07B243D39A7}" name="Filename" dataDxfId="7"/>
     <tableColumn id="1" xr3:uid="{E1CD1FBD-A7ED-42A0-AF35-86775A261772}" name="yObjName" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{AF4A7107-9C3C-4823-B3E7-ECB1147CA7DE}" name="yObjectType" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{F20023C9-30D5-4EC0-9B61-ED68616FAB45}" name="yScaler" dataDxfId="4"/>
@@ -882,16 +851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
@@ -904,14 +873,14 @@
       <c r="B1" s="3"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>31</v>
+      <c r="A2" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
@@ -935,21 +904,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>28</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>27</v>
@@ -962,23 +931,23 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>32</v>
+      <c r="A4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" s="13">
         <v>1400</v>
@@ -988,30 +957,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1400</v>
-      </c>
-      <c r="H5" s="13">
-        <v>350</v>
-      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -1022,7 +974,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1049,7 +1001,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1219,33 +1171,6 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1256,18 +1181,6 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{55729431-ED51-49A5-897E-D01AFD1BB9B0}">
-          <x14:formula1>
-            <xm:f>Settings!$A$3:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1287,10 +1200,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">

--- a/Import/pyPlotList/Time series.xlsx
+++ b/Import/pyPlotList/Time series.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Qcontrol</t>
   </si>
@@ -95,23 +95,35 @@
     <t>TS2</t>
   </si>
   <si>
-    <t>PVSystem.oh_262645</t>
-  </si>
-  <si>
-    <t>node_11021960</t>
-  </si>
-  <si>
     <t>['Index=0']</t>
   </si>
   <si>
     <t>['SumEven']</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>Circuit</t>
+  </si>
+  <si>
+    <t>PVSystem.oh_263163_0_1</t>
+  </si>
+  <si>
+    <t>nSamples</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>dev_263265_0_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,19 +158,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF75715E"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.2"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="12"/>
@@ -220,7 +219,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,6 +281,17 @@
         <bgColor theme="4" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -301,7 +311,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -310,62 +320,108 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
+    <cellStyle name="20% - Accent4" xfId="9" builtinId="42"/>
     <cellStyle name="40% - Accent2" xfId="4" builtinId="35"/>
     <cellStyle name="40% - Accent6" xfId="7" builtinId="51"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent4" xfId="8" builtinId="41"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -572,17 +628,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="A2:H4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A2:H4" xr:uid="{3ACE7797-6FF3-43A0-BA50-C0B0AE930604}"/>
-  <tableColumns count="8">
-    <tableColumn id="3" xr3:uid="{D4DF4142-866A-4CE0-8B16-F07B243D39A7}" name="Filename" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{E1CD1FBD-A7ED-42A0-AF35-86775A261772}" name="yObjName" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{AF4A7107-9C3C-4823-B3E7-ECB1147CA7DE}" name="yObjectType" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F20023C9-30D5-4EC0-9B61-ED68616FAB45}" name="yScaler" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{0FC49E85-2C8F-4478-920E-D89536D6A11F}" name="Properties" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{BC4DEAF8-6953-4CEF-99F2-FB425B9384AA}" name="index" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{903CE101-1120-492A-9F9F-B0830D614388}" name="Width" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{C54AB87C-C309-4CAC-9FB8-429B54D662F5}" name="Height" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E3EAE046-7CB0-417F-82F6-A578A224525D}" name="Table1" displayName="Table1" ref="A2:J4" insertRowShift="1" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A2:J4" xr:uid="{3ACE7797-6FF3-43A0-BA50-C0B0AE930604}"/>
+  <tableColumns count="10">
+    <tableColumn id="3" xr3:uid="{D4DF4142-866A-4CE0-8B16-F07B243D39A7}" name="Filename" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{E1CD1FBD-A7ED-42A0-AF35-86775A261772}" name="yObjName" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AF4A7107-9C3C-4823-B3E7-ECB1147CA7DE}" name="yObjectType" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F20023C9-30D5-4EC0-9B61-ED68616FAB45}" name="yScaler" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{0FC49E85-2C8F-4478-920E-D89536D6A11F}" name="Properties" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BC4DEAF8-6953-4CEF-99F2-FB425B9384AA}" name="index" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{903CE101-1120-492A-9F9F-B0830D614388}" name="Width" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C54AB87C-C309-4CAC-9FB8-429B54D662F5}" name="Height" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DBF53DC4-3249-4C19-A40D-685F95C47A18}" name="Dynamic" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{A72A7C8D-2C54-4F4F-B8D8-EB97338B4A44}" name="nSamples" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -851,15 +909,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -867,310 +925,329 @@
     <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="3"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="I2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="11">
+        <v>350</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="13">
+      <c r="G4" s="11">
         <v>1400</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H4" s="11">
         <v>350</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1400</v>
-      </c>
-      <c r="H4" s="13">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="I4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1181,6 +1258,18 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8DF4B5F8-4782-425D-AA64-FDDDC6552552}">
+          <x14:formula1>
+            <xm:f>Settings!$C$3:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1189,7 +1278,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B6:B8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,48 +1289,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Import/pyPlotList/Time series.xlsx
+++ b/Import/pyPlotList/Time series.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,9 @@
     <t>Filename</t>
   </si>
   <si>
-    <t>['v.Powers']</t>
-  </si>
-  <si>
     <t>['v.puVmagAngle']</t>
   </si>
   <si>
-    <t>[-1]</t>
-  </si>
-  <si>
     <t>[1]</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>['Index=0']</t>
   </si>
   <si>
-    <t>['SumEven']</t>
-  </si>
-  <si>
     <t>ObjectType</t>
   </si>
   <si>
@@ -117,6 +108,15 @@
   </si>
   <si>
     <t>dev_263265_0_1</t>
+  </si>
+  <si>
+    <t>['v.Powers','v.Powers']</t>
+  </si>
+  <si>
+    <t>[-1, -1]</t>
+  </si>
+  <si>
+    <t>['SumEven','SumOdd']</t>
   </si>
 </sst>
 </file>
@@ -912,23 +912,23 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
@@ -937,7 +937,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -963,30 +963,30 @@
         <v>14</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G3" s="11">
         <v>1400</v>
@@ -1001,24 +1001,24 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="11">
         <v>1400</v>
@@ -1033,7 +1033,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1042,7 +1042,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1051,7 +1051,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1060,7 +1060,7 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1069,7 +1069,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1078,7 +1078,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1087,7 +1087,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1096,7 +1096,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1105,7 +1105,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1114,7 +1114,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1123,7 +1123,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1132,7 +1132,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1141,7 +1141,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1150,7 +1150,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1159,7 +1159,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1168,7 +1168,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1177,7 +1177,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1186,7 +1186,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1195,7 +1195,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1204,7 +1204,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1213,7 +1213,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1222,7 +1222,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1231,7 +1231,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1240,7 +1240,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1281,20 +1281,20 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1302,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1324,19 +1324,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
